--- a/data/LCI/lci-lithium.xlsx
+++ b/data/LCI/lci-lithium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Data/LCI/from_premise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/data/LCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995736C-4528-6444-9125-4E59C7A7F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C995736C-4528-6444-9125-4E59C7A7F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88EE4E3E-2580-42CF-941B-97681C8F2A29}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="847" activeTab="4" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="847" firstSheet="2" activeTab="7" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LCI - Salar de Cauchari-Olaroz'!$A$1:$M$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LCI - Salar de Olaroz'!$A$1:$M$88</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,8 +1403,8 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A127" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,8 +4254,8 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5874,8 +5874,8 @@
   </sheetPr>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8484,8 +8484,8 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10463,8 +10463,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12502,8 +12502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2BA03A-8E76-4940-9614-A8DB44B2B195}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
